--- a/mapping/input_list_REX.xlsx
+++ b/mapping/input_list_REX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>input_list_IRI</t>
   </si>
@@ -31,58 +31,94 @@
     <t>no IRI</t>
   </si>
   <si>
-    <t>{'Photoluminescence'}</t>
-  </si>
-  <si>
-    <t>{'Charge recombination'}</t>
-  </si>
-  <si>
-    <t>{'Charge separation'}</t>
-  </si>
-  <si>
-    <t>{'Electron transfer'}</t>
-  </si>
-  <si>
-    <t>{'Photoexcitation'}</t>
-  </si>
-  <si>
-    <t>{'Reduction'}</t>
+    <t>{'photocatalysis'}</t>
+  </si>
+  <si>
+    <t>{'photoluminescence'}</t>
+  </si>
+  <si>
+    <t>{'photoinduced electron transfer'}</t>
+  </si>
+  <si>
+    <t>{'charge recombination'}</t>
+  </si>
+  <si>
+    <t>{'adsorption'}</t>
+  </si>
+  <si>
+    <t>{'desorption'}</t>
+  </si>
+  <si>
+    <t>{'charge separation'}</t>
+  </si>
+  <si>
+    <t>{'photoexcitation'}</t>
+  </si>
+  <si>
+    <t>{'oxidation'}</t>
+  </si>
+  <si>
+    <t>{'reduction'}</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/REX_0000036</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/REX_0000038</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/REX_0000031</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/REX_0000314</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/REX_0000198</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/REX_0000199</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/REX_0000313</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/REX_0000028</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/REX_0000027</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/REX_0000445</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/REX_0000444</t>
   </si>
   <si>
-    <t>{'label': 'Photoluminescence'}</t>
-  </si>
-  <si>
-    <t>{'label': 'Charge recombination'}</t>
-  </si>
-  <si>
-    <t>{'label': 'Charge separation'}</t>
-  </si>
-  <si>
-    <t>{'label': 'Electron transfer'}</t>
-  </si>
-  <si>
-    <t>{'label': 'Photoexcitation'}</t>
-  </si>
-  <si>
-    <t>{'label': 'Reduction'}</t>
+    <t>{'label': 'photocatalysis'}</t>
+  </si>
+  <si>
+    <t>{'label': 'photoluminescence'}</t>
+  </si>
+  <si>
+    <t>{'label': 'photoinduced electron transfer'}</t>
+  </si>
+  <si>
+    <t>{'label': 'charge recombination'}</t>
+  </si>
+  <si>
+    <t>{'label': 'adsorption'}</t>
+  </si>
+  <si>
+    <t>{'label': 'desorption'}</t>
+  </si>
+  <si>
+    <t>{'label': 'charge separation'}</t>
+  </si>
+  <si>
+    <t>{'label': 'photoexcitation'}</t>
+  </si>
+  <si>
+    <t>{'label': 'oxidation'}</t>
+  </si>
+  <si>
+    <t>{'label': 'reduction'}</t>
   </si>
 </sst>
 </file>
@@ -453,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -484,10 +520,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -501,10 +537,10 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -518,10 +554,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -535,10 +571,10 @@
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -552,10 +588,10 @@
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -569,10 +605,78 @@
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -583,6 +687,10 @@
     <hyperlink ref="D5" r:id="rId4"/>
     <hyperlink ref="D6" r:id="rId5"/>
     <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
